--- a/IPL/Data/exp/QC_batdatarup.xlsx
+++ b/IPL/Data/exp/QC_batdatarup.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1553"/>
+  <dimension ref="A1:I1672"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61008,6 +61008,4647 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1554">
+      <c r="A1554" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="B1554" t="inlineStr">
+        <is>
+          <t>Dharamsala</t>
+        </is>
+      </c>
+      <c r="C1554" t="inlineStr">
+        <is>
+          <t>1st innings</t>
+        </is>
+      </c>
+      <c r="D1554" t="inlineStr">
+        <is>
+          <t>PBKS</t>
+        </is>
+      </c>
+      <c r="E1554" t="inlineStr">
+        <is>
+          <t>P Simran Singh</t>
+        </is>
+      </c>
+      <c r="F1554" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1554" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1554" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1554" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="B1555" t="inlineStr">
+        <is>
+          <t>Dharamsala</t>
+        </is>
+      </c>
+      <c r="C1555" t="inlineStr">
+        <is>
+          <t>1st innings</t>
+        </is>
+      </c>
+      <c r="D1555" t="inlineStr">
+        <is>
+          <t>PBKS</t>
+        </is>
+      </c>
+      <c r="E1555" t="inlineStr">
+        <is>
+          <t>Atharva Taide</t>
+        </is>
+      </c>
+      <c r="F1555" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1555" t="n">
+        <v>19</v>
+      </c>
+      <c r="H1555" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1555" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="B1556" t="inlineStr">
+        <is>
+          <t>Dharamsala</t>
+        </is>
+      </c>
+      <c r="C1556" t="inlineStr">
+        <is>
+          <t>1st innings</t>
+        </is>
+      </c>
+      <c r="D1556" t="inlineStr">
+        <is>
+          <t>PBKS</t>
+        </is>
+      </c>
+      <c r="E1556" t="inlineStr">
+        <is>
+          <t>S Dhawan</t>
+        </is>
+      </c>
+      <c r="F1556" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1556" t="n">
+        <v>17</v>
+      </c>
+      <c r="H1556" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1556" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="B1557" t="inlineStr">
+        <is>
+          <t>Dharamsala</t>
+        </is>
+      </c>
+      <c r="C1557" t="inlineStr">
+        <is>
+          <t>1st innings</t>
+        </is>
+      </c>
+      <c r="D1557" t="inlineStr">
+        <is>
+          <t>PBKS</t>
+        </is>
+      </c>
+      <c r="E1557" t="inlineStr">
+        <is>
+          <t>LS Livingstone</t>
+        </is>
+      </c>
+      <c r="F1557" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1557" t="n">
+        <v>9</v>
+      </c>
+      <c r="H1557" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1557" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="B1558" t="inlineStr">
+        <is>
+          <t>Dharamsala</t>
+        </is>
+      </c>
+      <c r="C1558" t="inlineStr">
+        <is>
+          <t>1st innings</t>
+        </is>
+      </c>
+      <c r="D1558" t="inlineStr">
+        <is>
+          <t>PBKS</t>
+        </is>
+      </c>
+      <c r="E1558" t="inlineStr">
+        <is>
+          <t>SM Curran</t>
+        </is>
+      </c>
+      <c r="F1558" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1558" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1558" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="B1559" t="inlineStr">
+        <is>
+          <t>Dharamsala</t>
+        </is>
+      </c>
+      <c r="C1559" t="inlineStr">
+        <is>
+          <t>1st innings</t>
+        </is>
+      </c>
+      <c r="D1559" t="inlineStr">
+        <is>
+          <t>PBKS</t>
+        </is>
+      </c>
+      <c r="E1559" t="inlineStr">
+        <is>
+          <t>JM Sharma</t>
+        </is>
+      </c>
+      <c r="F1559" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1559" t="n">
+        <v>44</v>
+      </c>
+      <c r="H1559" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1559" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="B1560" t="inlineStr">
+        <is>
+          <t>Dharamsala</t>
+        </is>
+      </c>
+      <c r="C1560" t="inlineStr">
+        <is>
+          <t>1st innings</t>
+        </is>
+      </c>
+      <c r="D1560" t="inlineStr">
+        <is>
+          <t>PBKS</t>
+        </is>
+      </c>
+      <c r="E1560" t="inlineStr">
+        <is>
+          <t>M Shahrukh Khan</t>
+        </is>
+      </c>
+      <c r="F1560" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1560" t="n">
+        <v>41</v>
+      </c>
+      <c r="H1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1560" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="B1561" t="inlineStr">
+        <is>
+          <t>Dharamsala</t>
+        </is>
+      </c>
+      <c r="C1561" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D1561" t="inlineStr">
+        <is>
+          <t>PBKS</t>
+        </is>
+      </c>
+      <c r="E1561" t="inlineStr">
+        <is>
+          <t>NT Ellis</t>
+        </is>
+      </c>
+      <c r="F1561" t="n">
+        <v>8</v>
+      </c>
+      <c r="G1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1561" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="B1562" t="inlineStr">
+        <is>
+          <t>Dharamsala</t>
+        </is>
+      </c>
+      <c r="C1562" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D1562" t="inlineStr">
+        <is>
+          <t>PBKS</t>
+        </is>
+      </c>
+      <c r="E1562" t="inlineStr">
+        <is>
+          <t>Harpreet Brar</t>
+        </is>
+      </c>
+      <c r="F1562" t="n">
+        <v>9</v>
+      </c>
+      <c r="G1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1562" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="B1563" t="inlineStr">
+        <is>
+          <t>Dharamsala</t>
+        </is>
+      </c>
+      <c r="C1563" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D1563" t="inlineStr">
+        <is>
+          <t>PBKS</t>
+        </is>
+      </c>
+      <c r="E1563" t="inlineStr">
+        <is>
+          <t>RD Chahar</t>
+        </is>
+      </c>
+      <c r="F1563" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1563" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="B1564" t="inlineStr">
+        <is>
+          <t>Dharamsala</t>
+        </is>
+      </c>
+      <c r="C1564" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D1564" t="inlineStr">
+        <is>
+          <t>PBKS</t>
+        </is>
+      </c>
+      <c r="E1564" t="inlineStr">
+        <is>
+          <t>K Rabada</t>
+        </is>
+      </c>
+      <c r="F1564" t="n">
+        <v>11</v>
+      </c>
+      <c r="G1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1564" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="B1565" t="inlineStr">
+        <is>
+          <t>Dharamsala</t>
+        </is>
+      </c>
+      <c r="C1565" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D1565" t="inlineStr">
+        <is>
+          <t>PBKS</t>
+        </is>
+      </c>
+      <c r="E1565" t="inlineStr">
+        <is>
+          <t>Arshdeep Singh</t>
+        </is>
+      </c>
+      <c r="F1565" t="n">
+        <v>12</v>
+      </c>
+      <c r="G1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1565" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="B1566" t="inlineStr">
+        <is>
+          <t>Dharamsala</t>
+        </is>
+      </c>
+      <c r="C1566" t="inlineStr">
+        <is>
+          <t>2nd innings</t>
+        </is>
+      </c>
+      <c r="D1566" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="E1566" t="inlineStr">
+        <is>
+          <t>YBK Jaiswal</t>
+        </is>
+      </c>
+      <c r="F1566" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1566" t="n">
+        <v>50</v>
+      </c>
+      <c r="H1566" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1566" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="B1567" t="inlineStr">
+        <is>
+          <t>Dharamsala</t>
+        </is>
+      </c>
+      <c r="C1567" t="inlineStr">
+        <is>
+          <t>2nd innings</t>
+        </is>
+      </c>
+      <c r="D1567" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="E1567" t="inlineStr">
+        <is>
+          <t>JC Buttler</t>
+        </is>
+      </c>
+      <c r="F1567" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1567" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1567" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="B1568" t="inlineStr">
+        <is>
+          <t>Dharamsala</t>
+        </is>
+      </c>
+      <c r="C1568" t="inlineStr">
+        <is>
+          <t>2nd innings</t>
+        </is>
+      </c>
+      <c r="D1568" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="E1568" t="inlineStr">
+        <is>
+          <t>D Padikkal</t>
+        </is>
+      </c>
+      <c r="F1568" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1568" t="n">
+        <v>51</v>
+      </c>
+      <c r="H1568" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1568" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="B1569" t="inlineStr">
+        <is>
+          <t>Dharamsala</t>
+        </is>
+      </c>
+      <c r="C1569" t="inlineStr">
+        <is>
+          <t>2nd innings</t>
+        </is>
+      </c>
+      <c r="D1569" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="E1569" t="inlineStr">
+        <is>
+          <t>SV Samson</t>
+        </is>
+      </c>
+      <c r="F1569" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1569" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1569" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1569" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="B1570" t="inlineStr">
+        <is>
+          <t>Dharamsala</t>
+        </is>
+      </c>
+      <c r="C1570" t="inlineStr">
+        <is>
+          <t>2nd innings</t>
+        </is>
+      </c>
+      <c r="D1570" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="E1570" t="inlineStr">
+        <is>
+          <t>SO Hetmyer</t>
+        </is>
+      </c>
+      <c r="F1570" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1570" t="n">
+        <v>46</v>
+      </c>
+      <c r="H1570" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1570" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="B1571" t="inlineStr">
+        <is>
+          <t>Dharamsala</t>
+        </is>
+      </c>
+      <c r="C1571" t="inlineStr">
+        <is>
+          <t>2nd innings</t>
+        </is>
+      </c>
+      <c r="D1571" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="E1571" t="inlineStr">
+        <is>
+          <t>R Parag</t>
+        </is>
+      </c>
+      <c r="F1571" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1571" t="n">
+        <v>20</v>
+      </c>
+      <c r="H1571" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1571" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="B1572" t="inlineStr">
+        <is>
+          <t>Dharamsala</t>
+        </is>
+      </c>
+      <c r="C1572" t="inlineStr">
+        <is>
+          <t>2nd innings</t>
+        </is>
+      </c>
+      <c r="D1572" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="E1572" t="inlineStr">
+        <is>
+          <t>Dhruv Jurel</t>
+        </is>
+      </c>
+      <c r="F1572" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1572" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1572" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="B1573" t="inlineStr">
+        <is>
+          <t>Dharamsala</t>
+        </is>
+      </c>
+      <c r="C1573" t="inlineStr">
+        <is>
+          <t>2nd innings</t>
+        </is>
+      </c>
+      <c r="D1573" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="E1573" t="inlineStr">
+        <is>
+          <t>TA Boult</t>
+        </is>
+      </c>
+      <c r="F1573" t="n">
+        <v>8</v>
+      </c>
+      <c r="G1573" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1573" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="B1574" t="inlineStr">
+        <is>
+          <t>Dharamsala</t>
+        </is>
+      </c>
+      <c r="C1574" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D1574" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="E1574" t="inlineStr">
+        <is>
+          <t>YS Chahal</t>
+        </is>
+      </c>
+      <c r="F1574" t="n">
+        <v>9</v>
+      </c>
+      <c r="G1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1574" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="B1575" t="inlineStr">
+        <is>
+          <t>Dharamsala</t>
+        </is>
+      </c>
+      <c r="C1575" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D1575" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="E1575" t="inlineStr">
+        <is>
+          <t>A Zampa</t>
+        </is>
+      </c>
+      <c r="F1575" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1575" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="B1576" t="inlineStr">
+        <is>
+          <t>Dharamsala</t>
+        </is>
+      </c>
+      <c r="C1576" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D1576" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="E1576" t="inlineStr">
+        <is>
+          <t>NA Saini</t>
+        </is>
+      </c>
+      <c r="F1576" t="n">
+        <v>11</v>
+      </c>
+      <c r="G1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1576" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="B1577" t="inlineStr">
+        <is>
+          <t>Dharamsala</t>
+        </is>
+      </c>
+      <c r="C1577" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D1577" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="E1577" t="inlineStr">
+        <is>
+          <t>Sandeep Sharma</t>
+        </is>
+      </c>
+      <c r="F1577" t="n">
+        <v>12</v>
+      </c>
+      <c r="G1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1577" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1578" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="C1578" t="inlineStr">
+        <is>
+          <t>1st innings</t>
+        </is>
+      </c>
+      <c r="D1578" t="inlineStr">
+        <is>
+          <t>CSK</t>
+        </is>
+      </c>
+      <c r="E1578" t="inlineStr">
+        <is>
+          <t>RD Gaikwad</t>
+        </is>
+      </c>
+      <c r="F1578" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1578" t="n">
+        <v>79</v>
+      </c>
+      <c r="H1578" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1578" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1579" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="C1579" t="inlineStr">
+        <is>
+          <t>1st innings</t>
+        </is>
+      </c>
+      <c r="D1579" t="inlineStr">
+        <is>
+          <t>CSK</t>
+        </is>
+      </c>
+      <c r="E1579" t="inlineStr">
+        <is>
+          <t>DP Conway</t>
+        </is>
+      </c>
+      <c r="F1579" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1579" t="n">
+        <v>87</v>
+      </c>
+      <c r="H1579" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1579" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1580" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="C1580" t="inlineStr">
+        <is>
+          <t>1st innings</t>
+        </is>
+      </c>
+      <c r="D1580" t="inlineStr">
+        <is>
+          <t>CSK</t>
+        </is>
+      </c>
+      <c r="E1580" t="inlineStr">
+        <is>
+          <t>S Dube</t>
+        </is>
+      </c>
+      <c r="F1580" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1580" t="n">
+        <v>22</v>
+      </c>
+      <c r="H1580" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1580" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1581" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="C1581" t="inlineStr">
+        <is>
+          <t>1st innings</t>
+        </is>
+      </c>
+      <c r="D1581" t="inlineStr">
+        <is>
+          <t>CSK</t>
+        </is>
+      </c>
+      <c r="E1581" t="inlineStr">
+        <is>
+          <t>RA Jadeja</t>
+        </is>
+      </c>
+      <c r="F1581" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1581" t="n">
+        <v>20</v>
+      </c>
+      <c r="H1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1581" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1582" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="C1582" t="inlineStr">
+        <is>
+          <t>1st innings</t>
+        </is>
+      </c>
+      <c r="D1582" t="inlineStr">
+        <is>
+          <t>CSK</t>
+        </is>
+      </c>
+      <c r="E1582" t="inlineStr">
+        <is>
+          <t>MS Dhoni</t>
+        </is>
+      </c>
+      <c r="F1582" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1582" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1582" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1583" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="C1583" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D1583" t="inlineStr">
+        <is>
+          <t>CSK</t>
+        </is>
+      </c>
+      <c r="E1583" t="inlineStr">
+        <is>
+          <t>M Pathirana</t>
+        </is>
+      </c>
+      <c r="F1583" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1583" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1584" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="C1584" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D1584" t="inlineStr">
+        <is>
+          <t>CSK</t>
+        </is>
+      </c>
+      <c r="E1584" t="inlineStr">
+        <is>
+          <t>AM Rahane</t>
+        </is>
+      </c>
+      <c r="F1584" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1584" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1585" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="C1585" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D1585" t="inlineStr">
+        <is>
+          <t>CSK</t>
+        </is>
+      </c>
+      <c r="E1585" t="inlineStr">
+        <is>
+          <t>MM Ali</t>
+        </is>
+      </c>
+      <c r="F1585" t="n">
+        <v>8</v>
+      </c>
+      <c r="G1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1585" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="A1586" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1586" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="C1586" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D1586" t="inlineStr">
+        <is>
+          <t>CSK</t>
+        </is>
+      </c>
+      <c r="E1586" t="inlineStr">
+        <is>
+          <t>AT Rayudu</t>
+        </is>
+      </c>
+      <c r="F1586" t="n">
+        <v>9</v>
+      </c>
+      <c r="G1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1586" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1587" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="C1587" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D1587" t="inlineStr">
+        <is>
+          <t>CSK</t>
+        </is>
+      </c>
+      <c r="E1587" t="inlineStr">
+        <is>
+          <t>DL Chahar</t>
+        </is>
+      </c>
+      <c r="F1587" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1587" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1588" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="C1588" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D1588" t="inlineStr">
+        <is>
+          <t>CSK</t>
+        </is>
+      </c>
+      <c r="E1588" t="inlineStr">
+        <is>
+          <t>TU Deshpande</t>
+        </is>
+      </c>
+      <c r="F1588" t="n">
+        <v>11</v>
+      </c>
+      <c r="G1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1588" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1589" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="C1589" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D1589" t="inlineStr">
+        <is>
+          <t>CSK</t>
+        </is>
+      </c>
+      <c r="E1589" t="inlineStr">
+        <is>
+          <t>M Theekshana</t>
+        </is>
+      </c>
+      <c r="F1589" t="n">
+        <v>12</v>
+      </c>
+      <c r="G1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1589" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1590" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="C1590" t="inlineStr">
+        <is>
+          <t>2nd innings</t>
+        </is>
+      </c>
+      <c r="D1590" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="E1590" t="inlineStr">
+        <is>
+          <t>PP Shaw</t>
+        </is>
+      </c>
+      <c r="F1590" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1590" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1590" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1590" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1591" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="C1591" t="inlineStr">
+        <is>
+          <t>2nd innings</t>
+        </is>
+      </c>
+      <c r="D1591" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="E1591" t="inlineStr">
+        <is>
+          <t>DA Warner</t>
+        </is>
+      </c>
+      <c r="F1591" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1591" t="n">
+        <v>86</v>
+      </c>
+      <c r="H1591" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1591" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1592" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="C1592" t="inlineStr">
+        <is>
+          <t>2nd innings</t>
+        </is>
+      </c>
+      <c r="D1592" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="E1592" t="inlineStr">
+        <is>
+          <t>PD Salt</t>
+        </is>
+      </c>
+      <c r="F1592" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1592" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1592" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1592" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1593" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="C1593" t="inlineStr">
+        <is>
+          <t>2nd innings</t>
+        </is>
+      </c>
+      <c r="D1593" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="E1593" t="inlineStr">
+        <is>
+          <t>RR Rossouw</t>
+        </is>
+      </c>
+      <c r="F1593" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1593" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1593" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1594" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="C1594" t="inlineStr">
+        <is>
+          <t>2nd innings</t>
+        </is>
+      </c>
+      <c r="D1594" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="E1594" t="inlineStr">
+        <is>
+          <t>YV Dhull</t>
+        </is>
+      </c>
+      <c r="F1594" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1594" t="n">
+        <v>13</v>
+      </c>
+      <c r="H1594" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1594" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1595" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="C1595" t="inlineStr">
+        <is>
+          <t>2nd innings</t>
+        </is>
+      </c>
+      <c r="D1595" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="E1595" t="inlineStr">
+        <is>
+          <t>AR Patel</t>
+        </is>
+      </c>
+      <c r="F1595" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1595" t="n">
+        <v>15</v>
+      </c>
+      <c r="H1595" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1595" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1596" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="C1596" t="inlineStr">
+        <is>
+          <t>2nd innings</t>
+        </is>
+      </c>
+      <c r="D1596" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="E1596" t="inlineStr">
+        <is>
+          <t>Aman Hakim Khan</t>
+        </is>
+      </c>
+      <c r="F1596" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1596" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1596" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1596" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1597" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="C1597" t="inlineStr">
+        <is>
+          <t>2nd innings</t>
+        </is>
+      </c>
+      <c r="D1597" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="E1597" t="inlineStr">
+        <is>
+          <t>Lalit Yadav</t>
+        </is>
+      </c>
+      <c r="F1597" t="n">
+        <v>8</v>
+      </c>
+      <c r="G1597" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1597" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1597" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1598" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="C1598" t="inlineStr">
+        <is>
+          <t>2nd innings</t>
+        </is>
+      </c>
+      <c r="D1598" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="E1598" t="inlineStr">
+        <is>
+          <t>A Nortje</t>
+        </is>
+      </c>
+      <c r="F1598" t="n">
+        <v>9</v>
+      </c>
+      <c r="G1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1598" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1599" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="C1599" t="inlineStr">
+        <is>
+          <t>2nd innings</t>
+        </is>
+      </c>
+      <c r="D1599" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="E1599" t="inlineStr">
+        <is>
+          <t>Kuldeep Yadav</t>
+        </is>
+      </c>
+      <c r="F1599" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1599" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1599" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1600" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="C1600" t="inlineStr">
+        <is>
+          <t>2nd innings</t>
+        </is>
+      </c>
+      <c r="D1600" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="E1600" t="inlineStr">
+        <is>
+          <t>C Sakariya</t>
+        </is>
+      </c>
+      <c r="F1600" t="n">
+        <v>11</v>
+      </c>
+      <c r="G1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1600" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1601" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="C1601" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D1601" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="E1601" t="inlineStr">
+        <is>
+          <t>KK Ahmed</t>
+        </is>
+      </c>
+      <c r="F1601" t="n">
+        <v>12</v>
+      </c>
+      <c r="G1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1601" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1602" t="inlineStr">
+        <is>
+          <t>Kolkata</t>
+        </is>
+      </c>
+      <c r="C1602" t="inlineStr">
+        <is>
+          <t>2nd innings</t>
+        </is>
+      </c>
+      <c r="D1602" t="inlineStr">
+        <is>
+          <t>KKR</t>
+        </is>
+      </c>
+      <c r="E1602" t="inlineStr">
+        <is>
+          <t>JJ Roy</t>
+        </is>
+      </c>
+      <c r="F1602" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1602" t="n">
+        <v>45</v>
+      </c>
+      <c r="H1602" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1602" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1603" t="inlineStr">
+        <is>
+          <t>Kolkata</t>
+        </is>
+      </c>
+      <c r="C1603" t="inlineStr">
+        <is>
+          <t>2nd innings</t>
+        </is>
+      </c>
+      <c r="D1603" t="inlineStr">
+        <is>
+          <t>KKR</t>
+        </is>
+      </c>
+      <c r="E1603" t="inlineStr">
+        <is>
+          <t>VR Iyer</t>
+        </is>
+      </c>
+      <c r="F1603" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1603" t="n">
+        <v>24</v>
+      </c>
+      <c r="H1603" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1603" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1604" t="inlineStr">
+        <is>
+          <t>Kolkata</t>
+        </is>
+      </c>
+      <c r="C1604" t="inlineStr">
+        <is>
+          <t>2nd innings</t>
+        </is>
+      </c>
+      <c r="D1604" t="inlineStr">
+        <is>
+          <t>KKR</t>
+        </is>
+      </c>
+      <c r="E1604" t="inlineStr">
+        <is>
+          <t>N Rana</t>
+        </is>
+      </c>
+      <c r="F1604" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1604" t="n">
+        <v>8</v>
+      </c>
+      <c r="H1604" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1604" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1605" t="inlineStr">
+        <is>
+          <t>Kolkata</t>
+        </is>
+      </c>
+      <c r="C1605" t="inlineStr">
+        <is>
+          <t>2nd innings</t>
+        </is>
+      </c>
+      <c r="D1605" t="inlineStr">
+        <is>
+          <t>KKR</t>
+        </is>
+      </c>
+      <c r="E1605" t="inlineStr">
+        <is>
+          <t>Rahmanullah Gurbaz</t>
+        </is>
+      </c>
+      <c r="F1605" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1605" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1605" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1605" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1606" t="inlineStr">
+        <is>
+          <t>Kolkata</t>
+        </is>
+      </c>
+      <c r="C1606" t="inlineStr">
+        <is>
+          <t>2nd innings</t>
+        </is>
+      </c>
+      <c r="D1606" t="inlineStr">
+        <is>
+          <t>KKR</t>
+        </is>
+      </c>
+      <c r="E1606" t="inlineStr">
+        <is>
+          <t>RK Singh</t>
+        </is>
+      </c>
+      <c r="F1606" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1606" t="n">
+        <v>67</v>
+      </c>
+      <c r="H1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1606" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1607" t="inlineStr">
+        <is>
+          <t>Kolkata</t>
+        </is>
+      </c>
+      <c r="C1607" t="inlineStr">
+        <is>
+          <t>2nd innings</t>
+        </is>
+      </c>
+      <c r="D1607" t="inlineStr">
+        <is>
+          <t>KKR</t>
+        </is>
+      </c>
+      <c r="E1607" t="inlineStr">
+        <is>
+          <t>AD Russell</t>
+        </is>
+      </c>
+      <c r="F1607" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1607" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1607" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1607" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1608" t="inlineStr">
+        <is>
+          <t>Kolkata</t>
+        </is>
+      </c>
+      <c r="C1608" t="inlineStr">
+        <is>
+          <t>2nd innings</t>
+        </is>
+      </c>
+      <c r="D1608" t="inlineStr">
+        <is>
+          <t>KKR</t>
+        </is>
+      </c>
+      <c r="E1608" t="inlineStr">
+        <is>
+          <t>SN Thakur</t>
+        </is>
+      </c>
+      <c r="F1608" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1608" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1608" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1608" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1609" t="inlineStr">
+        <is>
+          <t>Kolkata</t>
+        </is>
+      </c>
+      <c r="C1609" t="inlineStr">
+        <is>
+          <t>2nd innings</t>
+        </is>
+      </c>
+      <c r="D1609" t="inlineStr">
+        <is>
+          <t>KKR</t>
+        </is>
+      </c>
+      <c r="E1609" t="inlineStr">
+        <is>
+          <t>SP Narine</t>
+        </is>
+      </c>
+      <c r="F1609" t="n">
+        <v>8</v>
+      </c>
+      <c r="G1609" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1609" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1609" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1610" t="inlineStr">
+        <is>
+          <t>Kolkata</t>
+        </is>
+      </c>
+      <c r="C1610" t="inlineStr">
+        <is>
+          <t>2nd innings</t>
+        </is>
+      </c>
+      <c r="D1610" t="inlineStr">
+        <is>
+          <t>KKR</t>
+        </is>
+      </c>
+      <c r="E1610" t="inlineStr">
+        <is>
+          <t>VG Arora</t>
+        </is>
+      </c>
+      <c r="F1610" t="n">
+        <v>9</v>
+      </c>
+      <c r="G1610" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1610" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1611" t="inlineStr">
+        <is>
+          <t>Kolkata</t>
+        </is>
+      </c>
+      <c r="C1611" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D1611" t="inlineStr">
+        <is>
+          <t>KKR</t>
+        </is>
+      </c>
+      <c r="E1611" t="inlineStr">
+        <is>
+          <t>Harshit Rana</t>
+        </is>
+      </c>
+      <c r="F1611" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1611" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1612" t="inlineStr">
+        <is>
+          <t>Kolkata</t>
+        </is>
+      </c>
+      <c r="C1612" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D1612" t="inlineStr">
+        <is>
+          <t>KKR</t>
+        </is>
+      </c>
+      <c r="E1612" t="inlineStr">
+        <is>
+          <t>CV Varun</t>
+        </is>
+      </c>
+      <c r="F1612" t="n">
+        <v>11</v>
+      </c>
+      <c r="G1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1612" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1613" t="inlineStr">
+        <is>
+          <t>Kolkata</t>
+        </is>
+      </c>
+      <c r="C1613" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D1613" t="inlineStr">
+        <is>
+          <t>KKR</t>
+        </is>
+      </c>
+      <c r="E1613" t="inlineStr">
+        <is>
+          <t>Suyash Sharma</t>
+        </is>
+      </c>
+      <c r="F1613" t="n">
+        <v>12</v>
+      </c>
+      <c r="G1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1613" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1614" t="inlineStr">
+        <is>
+          <t>Kolkata</t>
+        </is>
+      </c>
+      <c r="C1614" t="inlineStr">
+        <is>
+          <t>1st innings</t>
+        </is>
+      </c>
+      <c r="D1614" t="inlineStr">
+        <is>
+          <t>LSG</t>
+        </is>
+      </c>
+      <c r="E1614" t="inlineStr">
+        <is>
+          <t>KS Sharma</t>
+        </is>
+      </c>
+      <c r="F1614" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1614" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1614" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1614" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1615" t="inlineStr">
+        <is>
+          <t>Kolkata</t>
+        </is>
+      </c>
+      <c r="C1615" t="inlineStr">
+        <is>
+          <t>1st innings</t>
+        </is>
+      </c>
+      <c r="D1615" t="inlineStr">
+        <is>
+          <t>LSG</t>
+        </is>
+      </c>
+      <c r="E1615" t="inlineStr">
+        <is>
+          <t>Q de Kock</t>
+        </is>
+      </c>
+      <c r="F1615" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1615" t="n">
+        <v>28</v>
+      </c>
+      <c r="H1615" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1615" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1616" t="inlineStr">
+        <is>
+          <t>Kolkata</t>
+        </is>
+      </c>
+      <c r="C1616" t="inlineStr">
+        <is>
+          <t>1st innings</t>
+        </is>
+      </c>
+      <c r="D1616" t="inlineStr">
+        <is>
+          <t>LSG</t>
+        </is>
+      </c>
+      <c r="E1616" t="inlineStr">
+        <is>
+          <t>PN Mankad</t>
+        </is>
+      </c>
+      <c r="F1616" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1616" t="n">
+        <v>26</v>
+      </c>
+      <c r="H1616" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1616" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1617" t="inlineStr">
+        <is>
+          <t>Kolkata</t>
+        </is>
+      </c>
+      <c r="C1617" t="inlineStr">
+        <is>
+          <t>1st innings</t>
+        </is>
+      </c>
+      <c r="D1617" t="inlineStr">
+        <is>
+          <t>LSG</t>
+        </is>
+      </c>
+      <c r="E1617" t="inlineStr">
+        <is>
+          <t>MP Stoinis</t>
+        </is>
+      </c>
+      <c r="F1617" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1617" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1617" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1618" t="inlineStr">
+        <is>
+          <t>Kolkata</t>
+        </is>
+      </c>
+      <c r="C1618" t="inlineStr">
+        <is>
+          <t>1st innings</t>
+        </is>
+      </c>
+      <c r="D1618" t="inlineStr">
+        <is>
+          <t>LSG</t>
+        </is>
+      </c>
+      <c r="E1618" t="inlineStr">
+        <is>
+          <t>KH Pandya</t>
+        </is>
+      </c>
+      <c r="F1618" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1618" t="n">
+        <v>9</v>
+      </c>
+      <c r="H1618" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1618" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1619" t="inlineStr">
+        <is>
+          <t>Kolkata</t>
+        </is>
+      </c>
+      <c r="C1619" t="inlineStr">
+        <is>
+          <t>1st innings</t>
+        </is>
+      </c>
+      <c r="D1619" t="inlineStr">
+        <is>
+          <t>LSG</t>
+        </is>
+      </c>
+      <c r="E1619" t="inlineStr">
+        <is>
+          <t>A Badoni</t>
+        </is>
+      </c>
+      <c r="F1619" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1619" t="n">
+        <v>25</v>
+      </c>
+      <c r="H1619" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1619" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1620" t="inlineStr">
+        <is>
+          <t>Kolkata</t>
+        </is>
+      </c>
+      <c r="C1620" t="inlineStr">
+        <is>
+          <t>1st innings</t>
+        </is>
+      </c>
+      <c r="D1620" t="inlineStr">
+        <is>
+          <t>LSG</t>
+        </is>
+      </c>
+      <c r="E1620" t="inlineStr">
+        <is>
+          <t>N Pooran</t>
+        </is>
+      </c>
+      <c r="F1620" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1620" t="n">
+        <v>58</v>
+      </c>
+      <c r="H1620" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1620" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1621" t="inlineStr">
+        <is>
+          <t>Kolkata</t>
+        </is>
+      </c>
+      <c r="C1621" t="inlineStr">
+        <is>
+          <t>1st innings</t>
+        </is>
+      </c>
+      <c r="D1621" t="inlineStr">
+        <is>
+          <t>LSG</t>
+        </is>
+      </c>
+      <c r="E1621" t="inlineStr">
+        <is>
+          <t>Ravi Bishnoi</t>
+        </is>
+      </c>
+      <c r="F1621" t="n">
+        <v>8</v>
+      </c>
+      <c r="G1621" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1621" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1621" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1622" t="inlineStr">
+        <is>
+          <t>Kolkata</t>
+        </is>
+      </c>
+      <c r="C1622" t="inlineStr">
+        <is>
+          <t>1st innings</t>
+        </is>
+      </c>
+      <c r="D1622" t="inlineStr">
+        <is>
+          <t>LSG</t>
+        </is>
+      </c>
+      <c r="E1622" t="inlineStr">
+        <is>
+          <t>Naveen-ul-Haq</t>
+        </is>
+      </c>
+      <c r="F1622" t="n">
+        <v>9</v>
+      </c>
+      <c r="G1622" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1622" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1623" t="inlineStr">
+        <is>
+          <t>Kolkata</t>
+        </is>
+      </c>
+      <c r="C1623" t="inlineStr">
+        <is>
+          <t>1st innings</t>
+        </is>
+      </c>
+      <c r="D1623" t="inlineStr">
+        <is>
+          <t>LSG</t>
+        </is>
+      </c>
+      <c r="E1623" t="inlineStr">
+        <is>
+          <t>K Gowtham</t>
+        </is>
+      </c>
+      <c r="F1623" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1623" t="n">
+        <v>11</v>
+      </c>
+      <c r="H1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1623" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1624" t="inlineStr">
+        <is>
+          <t>Kolkata</t>
+        </is>
+      </c>
+      <c r="C1624" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D1624" t="inlineStr">
+        <is>
+          <t>LSG</t>
+        </is>
+      </c>
+      <c r="E1624" t="inlineStr">
+        <is>
+          <t>Yash Thakur</t>
+        </is>
+      </c>
+      <c r="F1624" t="n">
+        <v>11</v>
+      </c>
+      <c r="G1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1624" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" t="inlineStr">
+        <is>
+          <t>2023-05-20</t>
+        </is>
+      </c>
+      <c r="B1625" t="inlineStr">
+        <is>
+          <t>Kolkata</t>
+        </is>
+      </c>
+      <c r="C1625" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D1625" t="inlineStr">
+        <is>
+          <t>LSG</t>
+        </is>
+      </c>
+      <c r="E1625" t="inlineStr">
+        <is>
+          <t>Mohsin Khan (2)</t>
+        </is>
+      </c>
+      <c r="F1625" t="n">
+        <v>12</v>
+      </c>
+      <c r="G1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1625" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1626" t="inlineStr">
+        <is>
+          <t>Bengaluru</t>
+        </is>
+      </c>
+      <c r="C1626" t="inlineStr">
+        <is>
+          <t>2nd innings</t>
+        </is>
+      </c>
+      <c r="D1626" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="E1626" t="inlineStr">
+        <is>
+          <t>WP Saha</t>
+        </is>
+      </c>
+      <c r="F1626" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1626" t="n">
+        <v>12</v>
+      </c>
+      <c r="H1626" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1626" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1627" t="inlineStr">
+        <is>
+          <t>Bengaluru</t>
+        </is>
+      </c>
+      <c r="C1627" t="inlineStr">
+        <is>
+          <t>2nd innings</t>
+        </is>
+      </c>
+      <c r="D1627" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="E1627" t="inlineStr">
+        <is>
+          <t>Shubman Gill</t>
+        </is>
+      </c>
+      <c r="F1627" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1627" t="n">
+        <v>104</v>
+      </c>
+      <c r="H1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1627" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1628" t="inlineStr">
+        <is>
+          <t>Bengaluru</t>
+        </is>
+      </c>
+      <c r="C1628" t="inlineStr">
+        <is>
+          <t>2nd innings</t>
+        </is>
+      </c>
+      <c r="D1628" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="E1628" t="inlineStr">
+        <is>
+          <t>V Shankar</t>
+        </is>
+      </c>
+      <c r="F1628" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1628" t="n">
+        <v>53</v>
+      </c>
+      <c r="H1628" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1628" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1629" t="inlineStr">
+        <is>
+          <t>Bengaluru</t>
+        </is>
+      </c>
+      <c r="C1629" t="inlineStr">
+        <is>
+          <t>2nd innings</t>
+        </is>
+      </c>
+      <c r="D1629" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="E1629" t="inlineStr">
+        <is>
+          <t>MD Shanaka</t>
+        </is>
+      </c>
+      <c r="F1629" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1629" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1629" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1630" t="inlineStr">
+        <is>
+          <t>Bengaluru</t>
+        </is>
+      </c>
+      <c r="C1630" t="inlineStr">
+        <is>
+          <t>2nd innings</t>
+        </is>
+      </c>
+      <c r="D1630" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="E1630" t="inlineStr">
+        <is>
+          <t>DA Miller</t>
+        </is>
+      </c>
+      <c r="F1630" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1630" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1630" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1630" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1631" t="inlineStr">
+        <is>
+          <t>Bengaluru</t>
+        </is>
+      </c>
+      <c r="C1631" t="inlineStr">
+        <is>
+          <t>2nd innings</t>
+        </is>
+      </c>
+      <c r="D1631" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="E1631" t="inlineStr">
+        <is>
+          <t>R Tewatia</t>
+        </is>
+      </c>
+      <c r="F1631" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1631" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1631" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1632" t="inlineStr">
+        <is>
+          <t>Bengaluru</t>
+        </is>
+      </c>
+      <c r="C1632" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D1632" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="E1632" t="inlineStr">
+        <is>
+          <t>Yash Dayal</t>
+        </is>
+      </c>
+      <c r="F1632" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1632" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1633" t="inlineStr">
+        <is>
+          <t>Bengaluru</t>
+        </is>
+      </c>
+      <c r="C1633" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D1633" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="E1633" t="inlineStr">
+        <is>
+          <t>HH Pandya</t>
+        </is>
+      </c>
+      <c r="F1633" t="n">
+        <v>8</v>
+      </c>
+      <c r="G1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1633" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1634" t="inlineStr">
+        <is>
+          <t>Bengaluru</t>
+        </is>
+      </c>
+      <c r="C1634" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D1634" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="E1634" t="inlineStr">
+        <is>
+          <t>Rashid Khan</t>
+        </is>
+      </c>
+      <c r="F1634" t="n">
+        <v>9</v>
+      </c>
+      <c r="G1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1634" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1635" t="inlineStr">
+        <is>
+          <t>Bengaluru</t>
+        </is>
+      </c>
+      <c r="C1635" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D1635" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="E1635" t="inlineStr">
+        <is>
+          <t>Noor Ahmad</t>
+        </is>
+      </c>
+      <c r="F1635" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1635" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1636" t="inlineStr">
+        <is>
+          <t>Bengaluru</t>
+        </is>
+      </c>
+      <c r="C1636" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D1636" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="E1636" t="inlineStr">
+        <is>
+          <t>Mohammed Shami</t>
+        </is>
+      </c>
+      <c r="F1636" t="n">
+        <v>11</v>
+      </c>
+      <c r="G1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1636" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1637" t="inlineStr">
+        <is>
+          <t>Bengaluru</t>
+        </is>
+      </c>
+      <c r="C1637" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D1637" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="E1637" t="inlineStr">
+        <is>
+          <t>MM Sharma</t>
+        </is>
+      </c>
+      <c r="F1637" t="n">
+        <v>12</v>
+      </c>
+      <c r="G1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1637" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1638" t="inlineStr">
+        <is>
+          <t>Bengaluru</t>
+        </is>
+      </c>
+      <c r="C1638" t="inlineStr">
+        <is>
+          <t>1st innings</t>
+        </is>
+      </c>
+      <c r="D1638" t="inlineStr">
+        <is>
+          <t>RCB</t>
+        </is>
+      </c>
+      <c r="E1638" t="inlineStr">
+        <is>
+          <t>V Kohli</t>
+        </is>
+      </c>
+      <c r="F1638" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1638" t="n">
+        <v>101</v>
+      </c>
+      <c r="H1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1638" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1639" t="inlineStr">
+        <is>
+          <t>Bengaluru</t>
+        </is>
+      </c>
+      <c r="C1639" t="inlineStr">
+        <is>
+          <t>1st innings</t>
+        </is>
+      </c>
+      <c r="D1639" t="inlineStr">
+        <is>
+          <t>RCB</t>
+        </is>
+      </c>
+      <c r="E1639" t="inlineStr">
+        <is>
+          <t>F du Plessis</t>
+        </is>
+      </c>
+      <c r="F1639" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1639" t="n">
+        <v>28</v>
+      </c>
+      <c r="H1639" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1639" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1640" t="inlineStr">
+        <is>
+          <t>Bengaluru</t>
+        </is>
+      </c>
+      <c r="C1640" t="inlineStr">
+        <is>
+          <t>1st innings</t>
+        </is>
+      </c>
+      <c r="D1640" t="inlineStr">
+        <is>
+          <t>RCB</t>
+        </is>
+      </c>
+      <c r="E1640" t="inlineStr">
+        <is>
+          <t>GJ Maxwell</t>
+        </is>
+      </c>
+      <c r="F1640" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1640" t="n">
+        <v>11</v>
+      </c>
+      <c r="H1640" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1640" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1641" t="inlineStr">
+        <is>
+          <t>Bengaluru</t>
+        </is>
+      </c>
+      <c r="C1641" t="inlineStr">
+        <is>
+          <t>1st innings</t>
+        </is>
+      </c>
+      <c r="D1641" t="inlineStr">
+        <is>
+          <t>RCB</t>
+        </is>
+      </c>
+      <c r="E1641" t="inlineStr">
+        <is>
+          <t>MK Lomror</t>
+        </is>
+      </c>
+      <c r="F1641" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1641" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1641" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1641" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1642" t="inlineStr">
+        <is>
+          <t>Bengaluru</t>
+        </is>
+      </c>
+      <c r="C1642" t="inlineStr">
+        <is>
+          <t>1st innings</t>
+        </is>
+      </c>
+      <c r="D1642" t="inlineStr">
+        <is>
+          <t>RCB</t>
+        </is>
+      </c>
+      <c r="E1642" t="inlineStr">
+        <is>
+          <t>MG Bracewell</t>
+        </is>
+      </c>
+      <c r="F1642" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1642" t="n">
+        <v>26</v>
+      </c>
+      <c r="H1642" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1642" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1643" t="inlineStr">
+        <is>
+          <t>Bengaluru</t>
+        </is>
+      </c>
+      <c r="C1643" t="inlineStr">
+        <is>
+          <t>1st innings</t>
+        </is>
+      </c>
+      <c r="D1643" t="inlineStr">
+        <is>
+          <t>RCB</t>
+        </is>
+      </c>
+      <c r="E1643" t="inlineStr">
+        <is>
+          <t>KD Karthik</t>
+        </is>
+      </c>
+      <c r="F1643" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1643" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1643" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1644" t="inlineStr">
+        <is>
+          <t>Bengaluru</t>
+        </is>
+      </c>
+      <c r="C1644" t="inlineStr">
+        <is>
+          <t>1st innings</t>
+        </is>
+      </c>
+      <c r="D1644" t="inlineStr">
+        <is>
+          <t>RCB</t>
+        </is>
+      </c>
+      <c r="E1644" t="inlineStr">
+        <is>
+          <t>Anuj Rawat</t>
+        </is>
+      </c>
+      <c r="F1644" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1644" t="n">
+        <v>23</v>
+      </c>
+      <c r="H1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1644" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1645" t="inlineStr">
+        <is>
+          <t>Bengaluru</t>
+        </is>
+      </c>
+      <c r="C1645" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D1645" t="inlineStr">
+        <is>
+          <t>RCB</t>
+        </is>
+      </c>
+      <c r="E1645" t="inlineStr">
+        <is>
+          <t>H Sharma</t>
+        </is>
+      </c>
+      <c r="F1645" t="n">
+        <v>8</v>
+      </c>
+      <c r="G1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1645" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1646" t="inlineStr">
+        <is>
+          <t>Bengaluru</t>
+        </is>
+      </c>
+      <c r="C1646" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D1646" t="inlineStr">
+        <is>
+          <t>RCB</t>
+        </is>
+      </c>
+      <c r="E1646" t="inlineStr">
+        <is>
+          <t>HV Patel</t>
+        </is>
+      </c>
+      <c r="F1646" t="n">
+        <v>9</v>
+      </c>
+      <c r="G1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1646" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1647" t="inlineStr">
+        <is>
+          <t>Bengaluru</t>
+        </is>
+      </c>
+      <c r="C1647" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D1647" t="inlineStr">
+        <is>
+          <t>RCB</t>
+        </is>
+      </c>
+      <c r="E1647" t="inlineStr">
+        <is>
+          <t>WD Parnell</t>
+        </is>
+      </c>
+      <c r="F1647" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1647" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1648" t="inlineStr">
+        <is>
+          <t>Bengaluru</t>
+        </is>
+      </c>
+      <c r="C1648" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D1648" t="inlineStr">
+        <is>
+          <t>RCB</t>
+        </is>
+      </c>
+      <c r="E1648" t="inlineStr">
+        <is>
+          <t>Vijaykumar Vyshak</t>
+        </is>
+      </c>
+      <c r="F1648" t="n">
+        <v>11</v>
+      </c>
+      <c r="G1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1648" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1649" t="inlineStr">
+        <is>
+          <t>Bengaluru</t>
+        </is>
+      </c>
+      <c r="C1649" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D1649" t="inlineStr">
+        <is>
+          <t>RCB</t>
+        </is>
+      </c>
+      <c r="E1649" t="inlineStr">
+        <is>
+          <t>Mohammed Siraj</t>
+        </is>
+      </c>
+      <c r="F1649" t="n">
+        <v>12</v>
+      </c>
+      <c r="G1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1649" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1650" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="C1650" t="inlineStr">
+        <is>
+          <t>2nd innings</t>
+        </is>
+      </c>
+      <c r="D1650" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E1650" t="inlineStr">
+        <is>
+          <t>Ishan Kishan</t>
+        </is>
+      </c>
+      <c r="F1650" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1650" t="n">
+        <v>14</v>
+      </c>
+      <c r="H1650" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1650" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1651" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="C1651" t="inlineStr">
+        <is>
+          <t>2nd innings</t>
+        </is>
+      </c>
+      <c r="D1651" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E1651" t="inlineStr">
+        <is>
+          <t>RG Sharma</t>
+        </is>
+      </c>
+      <c r="F1651" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1651" t="n">
+        <v>56</v>
+      </c>
+      <c r="H1651" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1651" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1652" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="C1652" t="inlineStr">
+        <is>
+          <t>2nd innings</t>
+        </is>
+      </c>
+      <c r="D1652" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E1652" t="inlineStr">
+        <is>
+          <t>C Green</t>
+        </is>
+      </c>
+      <c r="F1652" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1652" t="n">
+        <v>100</v>
+      </c>
+      <c r="H1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1652" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1653" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="C1653" t="inlineStr">
+        <is>
+          <t>2nd innings</t>
+        </is>
+      </c>
+      <c r="D1653" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E1653" t="inlineStr">
+        <is>
+          <t>SA Yadav</t>
+        </is>
+      </c>
+      <c r="F1653" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1653" t="n">
+        <v>25</v>
+      </c>
+      <c r="H1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1653" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1654" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="C1654" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D1654" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E1654" t="inlineStr">
+        <is>
+          <t>TH David</t>
+        </is>
+      </c>
+      <c r="F1654" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1654" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1655" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="C1655" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D1655" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E1655" t="inlineStr">
+        <is>
+          <t>N Wadhera</t>
+        </is>
+      </c>
+      <c r="F1655" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1655" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1656" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="C1656" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D1656" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E1656" t="inlineStr">
+        <is>
+          <t>CJ Jordan</t>
+        </is>
+      </c>
+      <c r="F1656" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1656" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1657" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="C1657" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D1657" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E1657" t="inlineStr">
+        <is>
+          <t>PP Chawla</t>
+        </is>
+      </c>
+      <c r="F1657" t="n">
+        <v>8</v>
+      </c>
+      <c r="G1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1657" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1658" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="C1658" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D1658" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E1658" t="inlineStr">
+        <is>
+          <t>JP Behrendorff</t>
+        </is>
+      </c>
+      <c r="F1658" t="n">
+        <v>9</v>
+      </c>
+      <c r="G1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1658" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1659" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="C1659" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D1659" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E1659" t="inlineStr">
+        <is>
+          <t>K Kartikeya</t>
+        </is>
+      </c>
+      <c r="F1659" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1659" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1660" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="C1660" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D1660" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E1660" t="inlineStr">
+        <is>
+          <t>Akash Madhwal</t>
+        </is>
+      </c>
+      <c r="F1660" t="n">
+        <v>11</v>
+      </c>
+      <c r="G1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1660" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1661" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="C1661" t="inlineStr">
+        <is>
+          <t>1st innings</t>
+        </is>
+      </c>
+      <c r="D1661" t="inlineStr">
+        <is>
+          <t>SRH</t>
+        </is>
+      </c>
+      <c r="E1661" t="inlineStr">
+        <is>
+          <t>Vivrant Sharma</t>
+        </is>
+      </c>
+      <c r="F1661" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1661" t="n">
+        <v>69</v>
+      </c>
+      <c r="H1661" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1661" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1662" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="C1662" t="inlineStr">
+        <is>
+          <t>1st innings</t>
+        </is>
+      </c>
+      <c r="D1662" t="inlineStr">
+        <is>
+          <t>SRH</t>
+        </is>
+      </c>
+      <c r="E1662" t="inlineStr">
+        <is>
+          <t>MA Agarwal</t>
+        </is>
+      </c>
+      <c r="F1662" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1662" t="n">
+        <v>83</v>
+      </c>
+      <c r="H1662" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1662" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1663" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="C1663" t="inlineStr">
+        <is>
+          <t>1st innings</t>
+        </is>
+      </c>
+      <c r="D1663" t="inlineStr">
+        <is>
+          <t>SRH</t>
+        </is>
+      </c>
+      <c r="E1663" t="inlineStr">
+        <is>
+          <t>H Klaasen</t>
+        </is>
+      </c>
+      <c r="F1663" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1663" t="n">
+        <v>18</v>
+      </c>
+      <c r="H1663" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1663" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1664" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="C1664" t="inlineStr">
+        <is>
+          <t>1st innings</t>
+        </is>
+      </c>
+      <c r="D1664" t="inlineStr">
+        <is>
+          <t>SRH</t>
+        </is>
+      </c>
+      <c r="E1664" t="inlineStr">
+        <is>
+          <t>GD Phillips</t>
+        </is>
+      </c>
+      <c r="F1664" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1664" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1664" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1664" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1665" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="C1665" t="inlineStr">
+        <is>
+          <t>1st innings</t>
+        </is>
+      </c>
+      <c r="D1665" t="inlineStr">
+        <is>
+          <t>SRH</t>
+        </is>
+      </c>
+      <c r="E1665" t="inlineStr">
+        <is>
+          <t>AK Markram</t>
+        </is>
+      </c>
+      <c r="F1665" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1665" t="n">
+        <v>13</v>
+      </c>
+      <c r="H1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1665" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1666" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="C1666" t="inlineStr">
+        <is>
+          <t>1st innings</t>
+        </is>
+      </c>
+      <c r="D1666" t="inlineStr">
+        <is>
+          <t>SRH</t>
+        </is>
+      </c>
+      <c r="E1666" t="inlineStr">
+        <is>
+          <t>HC Brook</t>
+        </is>
+      </c>
+      <c r="F1666" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1666" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1666" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1667" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="C1667" t="inlineStr">
+        <is>
+          <t>1st innings</t>
+        </is>
+      </c>
+      <c r="D1667" t="inlineStr">
+        <is>
+          <t>SRH</t>
+        </is>
+      </c>
+      <c r="E1667" t="inlineStr">
+        <is>
+          <t>Sanvir Singh</t>
+        </is>
+      </c>
+      <c r="F1667" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1667" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1667" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1668" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="C1668" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D1668" t="inlineStr">
+        <is>
+          <t>SRH</t>
+        </is>
+      </c>
+      <c r="E1668" t="inlineStr">
+        <is>
+          <t>Kartik Tyagi</t>
+        </is>
+      </c>
+      <c r="F1668" t="n">
+        <v>8</v>
+      </c>
+      <c r="G1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1668" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1669" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="C1669" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D1669" t="inlineStr">
+        <is>
+          <t>SRH</t>
+        </is>
+      </c>
+      <c r="E1669" t="inlineStr">
+        <is>
+          <t>Nithish Kumar Reddy</t>
+        </is>
+      </c>
+      <c r="F1669" t="n">
+        <v>9</v>
+      </c>
+      <c r="G1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1669" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1670" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="C1670" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D1670" t="inlineStr">
+        <is>
+          <t>SRH</t>
+        </is>
+      </c>
+      <c r="E1670" t="inlineStr">
+        <is>
+          <t>Mayank Dagar</t>
+        </is>
+      </c>
+      <c r="F1670" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1670" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1671" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="C1671" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D1671" t="inlineStr">
+        <is>
+          <t>SRH</t>
+        </is>
+      </c>
+      <c r="E1671" t="inlineStr">
+        <is>
+          <t>B Kumar</t>
+        </is>
+      </c>
+      <c r="F1671" t="n">
+        <v>11</v>
+      </c>
+      <c r="G1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1671" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1672" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="C1672" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D1672" t="inlineStr">
+        <is>
+          <t>SRH</t>
+        </is>
+      </c>
+      <c r="E1672" t="inlineStr">
+        <is>
+          <t>Umran Malik</t>
+        </is>
+      </c>
+      <c r="F1672" t="n">
+        <v>12</v>
+      </c>
+      <c r="G1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1672" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
